--- a/data/trans_orig/P55S_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6172</v>
+        <v>6074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18040</v>
+        <v>18034</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1039920848034761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05990789979886677</v>
+        <v>0.05895619856975028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1750966295763055</v>
+        <v>0.1750471427609912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>32727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23129</v>
+        <v>23335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44398</v>
+        <v>44084</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1589859624315082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.112355571061748</v>
+        <v>0.1133564833824998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2156826163291714</v>
+        <v>0.2141546830635898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -786,19 +786,19 @@
         <v>43441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31523</v>
+        <v>31707</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56747</v>
+        <v>56845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1406428029351184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1020558044047568</v>
+        <v>0.1026517460327037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.183719828724194</v>
+        <v>0.1840374910166959</v>
       </c>
     </row>
     <row r="5">
@@ -828,19 +828,19 @@
         <v>10763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5350</v>
+        <v>5396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18562</v>
+        <v>18799</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05228451042644445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02599108550433801</v>
+        <v>0.02621375340603118</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09017027632196528</v>
+        <v>0.09132512413987615</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -849,19 +849,19 @@
         <v>10763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5283</v>
+        <v>5475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19505</v>
+        <v>18971</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03484505797630362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01710396806497241</v>
+        <v>0.01772624540463315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06314927532726398</v>
+        <v>0.06141792108941947</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>88579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81051</v>
+        <v>80886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94235</v>
+        <v>94099</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8597723241399904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7867044139722164</v>
+        <v>0.7851061689744594</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9146745634950587</v>
+        <v>0.9133567063332469</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -899,19 +899,19 @@
         <v>148063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134705</v>
+        <v>135156</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>160596</v>
+        <v>160530</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7192744867808781</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6543791155008594</v>
+        <v>0.6565706336971275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7801568684036908</v>
+        <v>0.7798373900621632</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>232</v>
@@ -920,19 +920,19 @@
         <v>236642</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>221737</v>
+        <v>221720</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>251428</v>
+        <v>251169</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7661374168147911</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7178820099440671</v>
+        <v>0.7178276527242453</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8140079206478763</v>
+        <v>0.8131691709055763</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>3733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>975</v>
+        <v>1019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9114</v>
+        <v>9415</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03623559105653347</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009466066953041924</v>
+        <v>0.009886407801051277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08846487407091504</v>
+        <v>0.09138917009728383</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -970,19 +970,19 @@
         <v>14297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7952</v>
+        <v>8420</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23059</v>
+        <v>23205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0694550403611692</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03863003920359977</v>
+        <v>0.04090340565818688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1120173828796156</v>
+        <v>0.112725241215609</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -991,19 +991,19 @@
         <v>18031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11198</v>
+        <v>10748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28225</v>
+        <v>27569</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05837472227378693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03625436450752204</v>
+        <v>0.03479636305491277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0913782003698288</v>
+        <v>0.08925525944461486</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3824</v>
+        <v>3697</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05854686346364699</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2695553616976504</v>
+        <v>0.2605558049463748</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1116,19 +1116,19 @@
         <v>7980</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3940</v>
+        <v>4172</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11598</v>
+        <v>11502</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5911709886565949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2918740878056083</v>
+        <v>0.3090323995668644</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8591501564206158</v>
+        <v>0.8520511727536049</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>8811</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4451</v>
+        <v>4546</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14652</v>
+        <v>14210</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3182316827453429</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1607469187483119</v>
+        <v>0.1642051201998277</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5291921795301441</v>
+        <v>0.5132304273549779</v>
       </c>
     </row>
     <row r="10">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3645</v>
+        <v>3656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05889992250123972</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2568764775460488</v>
+        <v>0.2576967851998528</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3825</v>
+        <v>5001</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03018283101594618</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1381415566317843</v>
+        <v>0.1806407309681504</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>9820</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5972</v>
+        <v>5591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13184</v>
+        <v>12454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6921679799922257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4209459548732659</v>
+        <v>0.394065927673462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.929251662538822</v>
+        <v>0.8777788759918025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1250,19 +1250,19 @@
         <v>5519</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1901</v>
+        <v>1997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9559</v>
+        <v>9327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.408829011343405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1408498435793842</v>
+        <v>0.1479488272463953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7081259121943916</v>
+        <v>0.6909676004331355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -1271,19 +1271,19 @@
         <v>15339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9944</v>
+        <v>10018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20404</v>
+        <v>20633</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5540239767659796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3591736381241817</v>
+        <v>0.3618384730839727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.736943240264891</v>
+        <v>0.7452312266432277</v>
       </c>
     </row>
     <row r="12">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6727</v>
+        <v>7274</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1903852340428877</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.474108172060955</v>
+        <v>0.5126944167905874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8128</v>
+        <v>8262</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09756150947273134</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2935566421482711</v>
+        <v>0.2984239340317592</v>
       </c>
     </row>
     <row r="13">
@@ -1438,19 +1438,19 @@
         <v>3465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7641</v>
+        <v>7410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3700185559914793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08795753338785035</v>
+        <v>0.08750952838911828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8159012164736188</v>
+        <v>0.7911970808228247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1459,19 +1459,19 @@
         <v>7511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3692</v>
+        <v>3925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10565</v>
+        <v>10618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6490423340623285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3190848050696948</v>
+        <v>0.3391442116459938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.913007573542388</v>
+        <v>0.9175903809454539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1480,19 +1480,19 @@
         <v>10976</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6464</v>
+        <v>6044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15649</v>
+        <v>15713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5242395947798426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.308752352189664</v>
+        <v>0.2886930504685368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7474356184094286</v>
+        <v>0.7504820296559456</v>
       </c>
     </row>
     <row r="15">
@@ -1556,19 +1556,19 @@
         <v>5900</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1724</v>
+        <v>1955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8541</v>
+        <v>8545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6299814440085206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.184098783526381</v>
+        <v>0.208802919177175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9120424666121495</v>
+        <v>0.9124904716108819</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1577,19 +1577,19 @@
         <v>3146</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7336</v>
+        <v>7302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2718982528852751</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07973017595422391</v>
+        <v>0.07941065062955915</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6339309881206768</v>
+        <v>0.6309878095218632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1598,19 +1598,19 @@
         <v>9046</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4132</v>
+        <v>4260</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13483</v>
+        <v>14207</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4320629651982431</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1973774572113496</v>
+        <v>0.2034562175269531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6439558446254247</v>
+        <v>0.6785364538624089</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4738</v>
+        <v>4286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07905941305239644</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4094258985888871</v>
+        <v>0.3703509093958045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4180</v>
+        <v>4792</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04369744002191433</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1996596850823223</v>
+        <v>0.228870020215012</v>
       </c>
     </row>
     <row r="18">
@@ -1765,19 +1765,19 @@
         <v>15010</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1786,19 +1786,19 @@
         <v>48218</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36914</v>
+        <v>36422</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63679</v>
+        <v>61772</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2088085470507513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1598563786335921</v>
+        <v>0.1577228088778697</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2757598114391963</v>
+        <v>0.2675023860821519</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -1807,19 +1807,19 @@
         <v>63228</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49949</v>
+        <v>50924</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79290</v>
+        <v>78033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.176861917608825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.139717807864013</v>
+        <v>0.142445197230937</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2217901046181327</v>
+        <v>0.2182727943562024</v>
       </c>
     </row>
     <row r="20">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1857,19 +1857,19 @@
         <v>10763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18918</v>
+        <v>19190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04660796929103392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02308064388712291</v>
+        <v>0.02355958252150759</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08192300894079724</v>
+        <v>0.08310123515786429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1878,19 +1878,19 @@
         <v>11598</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6350</v>
+        <v>5299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20286</v>
+        <v>19388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03244325809063792</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01776248834287934</v>
+        <v>0.01482331737080797</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05674487036924866</v>
+        <v>0.05423232965068588</v>
       </c>
     </row>
     <row r="21">
@@ -1907,19 +1907,19 @@
         <v>104298</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94745</v>
+        <v>95517</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>111981</v>
+        <v>112116</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8239848027991133</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7485122786821964</v>
+        <v>0.7546099108305555</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8846786918138952</v>
+        <v>0.8857489583751416</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -1928,19 +1928,19 @@
         <v>156728</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>141750</v>
+        <v>143405</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>170646</v>
+        <v>171563</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.678707217715202</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6138456184415008</v>
+        <v>0.6210085959529396</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7389759762282542</v>
+        <v>0.7429484714321775</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>255</v>
@@ -1949,19 +1949,19 @@
         <v>261028</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>243453</v>
+        <v>243818</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>275794</v>
+        <v>276047</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7301448585833309</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6809862609422086</v>
+        <v>0.6820071462578373</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7714487303605652</v>
+        <v>0.7721585582126316</v>
       </c>
     </row>
     <row r="22">
@@ -1978,19 +1978,19 @@
         <v>6434</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -1999,19 +1999,19 @@
         <v>15212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2020,19 +2020,19 @@
         <v>21647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="23">
@@ -2363,19 +2363,19 @@
         <v>13468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7166</v>
+        <v>8044</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21968</v>
+        <v>22373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1085065387473558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05773468314827153</v>
+        <v>0.06480465254779667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1769832358461082</v>
+        <v>0.1802437682399001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2384,19 +2384,19 @@
         <v>32897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21853</v>
+        <v>22346</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44846</v>
+        <v>46570</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1311457640434258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08711605582956682</v>
+        <v>0.08908302696083041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1787803521489941</v>
+        <v>0.1856535961297141</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -2405,19 +2405,19 @@
         <v>46366</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34288</v>
+        <v>34004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59921</v>
+        <v>61929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1236515731743536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09144306308318632</v>
+        <v>0.09068446937045029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1598015424758562</v>
+        <v>0.1651586100415247</v>
       </c>
     </row>
     <row r="5">
@@ -2434,19 +2434,19 @@
         <v>11891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6377</v>
+        <v>6432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19670</v>
+        <v>20038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09579858733248968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05137720376838066</v>
+        <v>0.05182073197779945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1584692913020438</v>
+        <v>0.1614333399179151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -2455,19 +2455,19 @@
         <v>52794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39467</v>
+        <v>40618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66865</v>
+        <v>68453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2104667322829774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1573372483371319</v>
+        <v>0.1619261422147958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2665584360871939</v>
+        <v>0.2728911580520705</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -2476,19 +2476,19 @@
         <v>64685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51220</v>
+        <v>52172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79299</v>
+        <v>80347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1725085003371798</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1365986665829583</v>
+        <v>0.1391362294277251</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2114823670932376</v>
+        <v>0.2142766516838864</v>
       </c>
     </row>
     <row r="6">
@@ -2505,19 +2505,19 @@
         <v>92474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81312</v>
+        <v>81770</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101993</v>
+        <v>101661</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7450060209483679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6550784066791439</v>
+        <v>0.6587735570170852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8216961134805942</v>
+        <v>0.8190184375684607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -2526,19 +2526,19 @@
         <v>158791</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>144299</v>
+        <v>141844</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175770</v>
+        <v>173882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6330275022826675</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5752547714884079</v>
+        <v>0.5654684922516061</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7007152383440033</v>
+        <v>0.6931894639923735</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>227</v>
@@ -2547,19 +2547,19 @@
         <v>251265</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>234578</v>
+        <v>229828</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>270446</v>
+        <v>269056</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6700953957791115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6255925105201807</v>
+        <v>0.6129255251401792</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7212477872365106</v>
+        <v>0.7175425274068662</v>
       </c>
     </row>
     <row r="7">
@@ -2576,19 +2576,19 @@
         <v>6292</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2057</v>
+        <v>2048</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14865</v>
+        <v>15044</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0506888529717866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01657602294111482</v>
+        <v>0.01649690815200452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1197602535461237</v>
+        <v>0.121201466380909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2597,19 +2597,19 @@
         <v>6361</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2282</v>
+        <v>2898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12949</v>
+        <v>13499</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02536000139092934</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009096546511197253</v>
+        <v>0.0115541393649747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05162331865040294</v>
+        <v>0.05381544338183197</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2618,19 +2618,19 @@
         <v>12653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6226</v>
+        <v>6442</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24182</v>
+        <v>22931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03374453070935512</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01660382796462919</v>
+        <v>0.01717947842240344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06449195310718368</v>
+        <v>0.06115418772495029</v>
       </c>
     </row>
     <row r="8">
@@ -2722,19 +2722,19 @@
         <v>3544</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8566</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.177091004275805</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05074598453823877</v>
+        <v>0.05112544436694856</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4279943215689814</v>
+        <v>0.3997156602199927</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -2743,19 +2743,19 @@
         <v>6767</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2830</v>
+        <v>2353</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12837</v>
+        <v>12561</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3199035101610825</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1338019157124866</v>
+        <v>0.1112275518039559</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6068819395843993</v>
+        <v>0.5938217396010954</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -2764,19 +2764,19 @@
         <v>10311</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4987</v>
+        <v>4782</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17865</v>
+        <v>17225</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2504711895960508</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1211410082536678</v>
+        <v>0.1161634372365487</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4339577777762915</v>
+        <v>0.418419481539649</v>
       </c>
     </row>
     <row r="10">
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4179</v>
+        <v>4798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04759011122101482</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2088090287644145</v>
+        <v>0.2397390852191601</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4668</v>
+        <v>5119</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02313727245061702</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1133956436490636</v>
+        <v>0.124337275659339</v>
       </c>
     </row>
     <row r="11">
@@ -2856,19 +2856,19 @@
         <v>15518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10255</v>
+        <v>11047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18904</v>
+        <v>18894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7753188845031802</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.512348117952801</v>
+        <v>0.551924691774755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9444868986066244</v>
+        <v>0.9439768752709815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -2877,19 +2877,19 @@
         <v>14386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8316</v>
+        <v>8592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18323</v>
+        <v>18800</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6800964898389175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3931180604156014</v>
+        <v>0.4061782603989045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8661980842875134</v>
+        <v>0.8887724481960442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -2898,19 +2898,19 @@
         <v>29904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22699</v>
+        <v>23247</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35713</v>
+        <v>35755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7263915379533321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5513829733266014</v>
+        <v>0.5646827444901089</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8674939835954667</v>
+        <v>0.8685255722321509</v>
       </c>
     </row>
     <row r="12">
@@ -3083,7 +3083,7 @@
         <v>4237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>6452</v>
@@ -3092,7 +3092,7 @@
         <v>0.656672511167376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1636095329685042</v>
+        <v>0.1665263912331825</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5396</v>
+        <v>5378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.343327488832624</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8363904670314958</v>
+        <v>0.8334736087668173</v>
       </c>
     </row>
     <row r="17">
@@ -3344,19 +3344,19 @@
         <v>19041</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11636</v>
+        <v>11923</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28717</v>
+        <v>29821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1302681146703799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07960580227825394</v>
+        <v>0.08156842930421079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1964637256696914</v>
+        <v>0.2040195781835142</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -3365,19 +3365,19 @@
         <v>41872</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30111</v>
+        <v>30688</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55859</v>
+        <v>55979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1514807999746038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1089321691872741</v>
+        <v>0.1110197702053558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2020809500455504</v>
+        <v>0.2025140939185949</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -3386,19 +3386,19 @@
         <v>60913</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46082</v>
+        <v>46516</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76734</v>
+        <v>76341</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.144143603115605</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1090463079475867</v>
+        <v>0.1100737379516796</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1815812345776431</v>
+        <v>0.180652140196547</v>
       </c>
     </row>
     <row r="20">
@@ -3415,19 +3415,19 @@
         <v>12843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7215</v>
+        <v>7324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21744</v>
+        <v>21118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0878680605166821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04936384719114745</v>
+        <v>0.05010644676677192</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.148761865474298</v>
+        <v>0.1444776600768732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -3436,19 +3436,19 @@
         <v>52794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40995</v>
+        <v>39818</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68675</v>
+        <v>65807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1909929303390999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1483084978366686</v>
+        <v>0.1440498019854098</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2484437166516986</v>
+        <v>0.2380684891295443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>61</v>
@@ -3457,19 +3457,19 @@
         <v>65638</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52285</v>
+        <v>53261</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>82654</v>
+        <v>81429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1553233552667236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1237260834694717</v>
+        <v>0.126034210302432</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1955905445882191</v>
+        <v>0.1926918620667769</v>
       </c>
     </row>
     <row r="21">
@@ -3486,19 +3486,19 @@
         <v>107992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>96382</v>
+        <v>94950</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>118824</v>
+        <v>117915</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7388192035239088</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6593940802760302</v>
+        <v>0.6495920634905427</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8129281302701264</v>
+        <v>0.8067083965473405</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>162</v>
@@ -3507,19 +3507,19 @@
         <v>175392</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>157989</v>
+        <v>158900</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>190180</v>
+        <v>192788</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6345127467103947</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5715548849304903</v>
+        <v>0.5748506440600478</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6880117397250078</v>
+        <v>0.6974443974053197</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>256</v>
@@ -3528,19 +3528,19 @@
         <v>283384</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>263864</v>
+        <v>264216</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>302811</v>
+        <v>303082</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6705910176284582</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6244005625699254</v>
+        <v>0.6252336661625101</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7165620374145625</v>
+        <v>0.7172048789728922</v>
       </c>
     </row>
     <row r="22">
@@ -3557,19 +3557,19 @@
         <v>6292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -3578,19 +3578,19 @@
         <v>6361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2338</v>
+        <v>2292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12840</v>
+        <v>12936</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02301352297590166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00845818157713296</v>
+        <v>0.008290105873450202</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04644969416169049</v>
+        <v>0.04679747845066812</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -3599,19 +3599,19 @@
         <v>12653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6558</v>
+        <v>6466</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23168</v>
+        <v>21855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02994202398921331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01551845269097915</v>
+        <v>0.01530049892190988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05482312079233326</v>
+        <v>0.05171630810431447</v>
       </c>
     </row>
     <row r="23">
@@ -3942,19 +3942,19 @@
         <v>13498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7707</v>
+        <v>7759</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20615</v>
+        <v>20491</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1444156111923882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08245886709831336</v>
+        <v>0.0830120973894333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2205694909833515</v>
+        <v>0.2192358254793614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -3963,19 +3963,19 @@
         <v>28242</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17797</v>
+        <v>18476</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39722</v>
+        <v>41039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1354122661528082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08533289917218435</v>
+        <v>0.08858565141422109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.190456514229891</v>
+        <v>0.1967699384504731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -3984,19 +3984,19 @@
         <v>41739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30552</v>
+        <v>30337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56048</v>
+        <v>55574</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1381984189994536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1011562515341002</v>
+        <v>0.1004449223775929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1855751043712162</v>
+        <v>0.1840038026420998</v>
       </c>
     </row>
     <row r="5">
@@ -4013,19 +4013,19 @@
         <v>6603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3273</v>
+        <v>3261</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12285</v>
+        <v>12744</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0706436023088494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03502070018778849</v>
+        <v>0.03489139073797205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1314409498588886</v>
+        <v>0.1363502285843134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -4034,19 +4034,19 @@
         <v>20153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12305</v>
+        <v>11684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31337</v>
+        <v>30994</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09663063004360316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05899982010275263</v>
+        <v>0.05602076212877458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1502548664077761</v>
+        <v>0.1486079359330476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -4055,19 +4055,19 @@
         <v>26756</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17756</v>
+        <v>18063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37865</v>
+        <v>38740</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08858874883381486</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0587890105785055</v>
+        <v>0.05980490596602746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1253709311229698</v>
+        <v>0.1282680318456586</v>
       </c>
     </row>
     <row r="6">
@@ -4084,19 +4084,19 @@
         <v>71511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62851</v>
+        <v>62275</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78373</v>
+        <v>78001</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7651162403903611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6724653040307833</v>
+        <v>0.6662992917498222</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.838537706607223</v>
+        <v>0.8345555430351248</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>118</v>
@@ -4105,19 +4105,19 @@
         <v>146630</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132252</v>
+        <v>131979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>159632</v>
+        <v>160530</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7030538792023977</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6341184463596612</v>
+        <v>0.6328090124400256</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7653971591451113</v>
+        <v>0.7697020701182483</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>198</v>
@@ -4126,19 +4126,19 @@
         <v>218140</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>201614</v>
+        <v>200820</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234784</v>
+        <v>233263</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7222595437118909</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.667539917878912</v>
+        <v>0.6649105710836837</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7773671425990144</v>
+        <v>0.7723309719197272</v>
       </c>
     </row>
     <row r="7">
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6834</v>
+        <v>6280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01982454610840135</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07312116369852142</v>
+        <v>0.06719634193924866</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4176,19 +4176,19 @@
         <v>13536</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7874</v>
+        <v>7011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23646</v>
+        <v>22606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06490322460119097</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03775438627996335</v>
+        <v>0.03361411646819112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1133747416401361</v>
+        <v>0.1083914179881818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -4197,19 +4197,19 @@
         <v>15389</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8894</v>
+        <v>8471</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24306</v>
+        <v>25672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05095328845484055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02944884773904639</v>
+        <v>0.02804811112228046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08047839647679185</v>
+        <v>0.08499803893871342</v>
       </c>
     </row>
     <row r="8">
@@ -4301,19 +4301,19 @@
         <v>4123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8563</v>
+        <v>8224</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1802537795226887</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06957951007786402</v>
+        <v>0.06955193754526848</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3743072564201443</v>
+        <v>0.3594968567398457</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -4322,19 +4322,19 @@
         <v>8729</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3524</v>
+        <v>4176</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16480</v>
+        <v>17007</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1677270741760439</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06771721370788922</v>
+        <v>0.08025485230475032</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3166831030274971</v>
+        <v>0.3268062632806802</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -4343,19 +4343,19 @@
         <v>12852</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7354</v>
+        <v>6939</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21051</v>
+        <v>21516</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.171552204775935</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09816840956888878</v>
+        <v>0.09262239461792296</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2809957130053269</v>
+        <v>0.2871943471179327</v>
       </c>
     </row>
     <row r="10">
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6159</v>
+        <v>5037</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02326649782380277</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1183523348810935</v>
+        <v>0.09679886351633003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6287</v>
+        <v>6681</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0161618848936387</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08392351004959298</v>
+        <v>0.08917507550205939</v>
       </c>
     </row>
     <row r="11">
@@ -4435,19 +4435,19 @@
         <v>18753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14313</v>
+        <v>14652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21284</v>
+        <v>21285</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8197462204773113</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6256927435798558</v>
+        <v>0.6405031432601542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.930420489922136</v>
+        <v>0.9304480624547316</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -4456,19 +4456,19 @@
         <v>33478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25666</v>
+        <v>25870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40884</v>
+        <v>40956</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6433212178809844</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4931962293667694</v>
+        <v>0.4971185347162834</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.78563441086787</v>
+        <v>0.7870166653251831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -4477,19 +4477,19 @@
         <v>52232</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42952</v>
+        <v>42262</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60410</v>
+        <v>59561</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6971940166211442</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5733343091860621</v>
+        <v>0.5641123990907323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8063637706070527</v>
+        <v>0.7950267680454866</v>
       </c>
     </row>
     <row r="12">
@@ -4519,19 +4519,19 @@
         <v>8622</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3441</v>
+        <v>4315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15872</v>
+        <v>16277</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.165685210119169</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06611685373765556</v>
+        <v>0.0829162156764227</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3049915192561571</v>
+        <v>0.3127844337407693</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4540,19 +4540,19 @@
         <v>8622</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3428</v>
+        <v>3465</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16728</v>
+        <v>16681</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1150918937092821</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04575953090581605</v>
+        <v>0.04624753345326049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2232808049908266</v>
+        <v>0.2226561813893862</v>
       </c>
     </row>
     <row r="13">
@@ -4657,7 +4657,7 @@
         <v>5500</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2247</v>
+        <v>1311</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>6762</v>
@@ -4666,7 +4666,7 @@
         <v>0.8134148873602675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3322648042243682</v>
+        <v>0.193805832979332</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4678,19 +4678,19 @@
         <v>5500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2129</v>
+        <v>2075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9550</v>
+        <v>9446</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4629650968369124</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1792340405180672</v>
+        <v>0.174695098147177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8038997276682832</v>
+        <v>0.7950996933171245</v>
       </c>
     </row>
     <row r="15">
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4515</v>
+        <v>5451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1865851126397326</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6677351957756283</v>
+        <v>0.806194167020668</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4788,19 +4788,19 @@
         <v>6380</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2330</v>
+        <v>2434</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9751</v>
+        <v>9805</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5370349031630876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1961002723317164</v>
+        <v>0.2049003066828755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8207659594819328</v>
+        <v>0.825304901852823</v>
       </c>
     </row>
     <row r="17">
@@ -4939,19 +4939,19 @@
         <v>17621</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -4960,19 +4960,19 @@
         <v>42470</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1588485796188314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -4981,19 +4981,19 @@
         <v>60091</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1545475925262416</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
     </row>
     <row r="20">
@@ -5010,19 +5010,19 @@
         <v>6603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3220</v>
+        <v>3198</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12386</v>
+        <v>12658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05436115516527579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02651446948443541</v>
+        <v>0.02633384366399056</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1019802284320771</v>
+        <v>0.1042148095780319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -5031,19 +5031,19 @@
         <v>21364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12588</v>
+        <v>13187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31938</v>
+        <v>33079</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07990708262964706</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04708220114725186</v>
+        <v>0.04932116937475595</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1194566087518736</v>
+        <v>0.1237214389409692</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -5052,19 +5052,19 @@
         <v>27967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18215</v>
+        <v>18132</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40778</v>
+        <v>40914</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07192714233818075</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0468456877928083</v>
+        <v>0.04663385445268416</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1048769040557538</v>
+        <v>0.1052250508586647</v>
       </c>
     </row>
     <row r="21">
@@ -5081,19 +5081,19 @@
         <v>95381</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>86858</v>
+        <v>86182</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102508</v>
+        <v>102965</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7853036358561492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7151310730211816</v>
+        <v>0.70955935838272</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8439817150646605</v>
+        <v>0.8477445928385264</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -5102,19 +5102,19 @@
         <v>181370</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>163874</v>
+        <v>163000</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>196610</v>
+        <v>197302</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6783660226317373</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6129278855133725</v>
+        <v>0.6096574351411415</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7353673044149124</v>
+        <v>0.7379552010268792</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>251</v>
@@ -5123,19 +5123,19 @@
         <v>276751</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>258365</v>
+        <v>256240</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>296183</v>
+        <v>293586</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7117707901678894</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6644818684314048</v>
+        <v>0.6590190839937295</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7617455240037146</v>
+        <v>0.7550668184663638</v>
       </c>
     </row>
     <row r="22">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -5173,19 +5173,19 @@
         <v>22159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08287831511978425</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -5194,19 +5194,19 @@
         <v>24011</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06175447496768832</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
     </row>
     <row r="23">
@@ -5537,19 +5537,19 @@
         <v>10949</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6516</v>
+        <v>6784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16815</v>
+        <v>17222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1055137355102094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06278917805592341</v>
+        <v>0.06537408556175191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1620354339554853</v>
+        <v>0.1659624882136752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -5558,19 +5558,19 @@
         <v>34842</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26170</v>
+        <v>27231</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43893</v>
+        <v>44817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1258694060846956</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09453891150536917</v>
+        <v>0.09837162106332203</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1585649501228472</v>
+        <v>0.1619049663373965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -5579,19 +5579,19 @@
         <v>45792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36260</v>
+        <v>36812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57867</v>
+        <v>57350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1203191976030361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0952747040165505</v>
+        <v>0.09672555584655153</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1520481684139822</v>
+        <v>0.1506884634604084</v>
       </c>
     </row>
     <row r="5">
@@ -5608,19 +5608,19 @@
         <v>25138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18802</v>
+        <v>18419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32309</v>
+        <v>32819</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.242246585570056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1811854387815675</v>
+        <v>0.1774959400147861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3113508838985676</v>
+        <v>0.3162627499484798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -5629,19 +5629,19 @@
         <v>71238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60491</v>
+        <v>61580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81525</v>
+        <v>83081</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2573522423128991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2185274523185379</v>
+        <v>0.2224610717919313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2945126118519095</v>
+        <v>0.3001327311826526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>181</v>
@@ -5650,19 +5650,19 @@
         <v>96377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84109</v>
+        <v>84235</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109444</v>
+        <v>108806</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2532335106863297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2210003923250589</v>
+        <v>0.2213316085056048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2875696606203904</v>
+        <v>0.2858920145391383</v>
       </c>
     </row>
     <row r="6">
@@ -5679,19 +5679,19 @@
         <v>64366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56315</v>
+        <v>55953</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71911</v>
+        <v>71970</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6202715462644371</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.542686540397</v>
+        <v>0.5391925521226103</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6929800940303057</v>
+        <v>0.6935454560283837</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>298</v>
@@ -5700,19 +5700,19 @@
         <v>159792</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147371</v>
+        <v>147007</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172108</v>
+        <v>171604</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5772547363366907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5323846457541395</v>
+        <v>0.5310697182669201</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6217491616929739</v>
+        <v>0.619927906509426</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>398</v>
@@ -5721,19 +5721,19 @@
         <v>224158</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>208648</v>
+        <v>208266</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>238410</v>
+        <v>237771</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5889837659670957</v>
+        <v>0.5889837659670956</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5482312711654432</v>
+        <v>0.5472284490101695</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6264313669614743</v>
+        <v>0.6247521700982973</v>
       </c>
     </row>
     <row r="7">
@@ -5750,19 +5750,19 @@
         <v>3317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1426</v>
+        <v>1362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7001</v>
+        <v>7156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03196813265529742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01374439362107564</v>
+        <v>0.0131237991389023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06746559228135889</v>
+        <v>0.06895512723331106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5771,19 +5771,19 @@
         <v>10941</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6984</v>
+        <v>6870</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16086</v>
+        <v>16394</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03952361526571477</v>
+        <v>0.03952361526571478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02523107101033491</v>
+        <v>0.02481847514879012</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05811287410676273</v>
+        <v>0.05922319229251834</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -5792,19 +5792,19 @@
         <v>14258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9551</v>
+        <v>10055</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20358</v>
+        <v>21058</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03746352574353859</v>
+        <v>0.03746352574353858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02509436301292977</v>
+        <v>0.02642009986017864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05349023043800675</v>
+        <v>0.05532963568423385</v>
       </c>
     </row>
     <row r="8">
@@ -5896,19 +5896,19 @@
         <v>6495</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3320</v>
+        <v>3392</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11120</v>
+        <v>10992</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.137243003049882</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07015046932879543</v>
+        <v>0.07168683139284679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2349963351393864</v>
+        <v>0.2322817718921363</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -5917,19 +5917,19 @@
         <v>11335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7085</v>
+        <v>7178</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16973</v>
+        <v>17037</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1809133752935985</v>
+        <v>0.1809133752935986</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1130803061733445</v>
+        <v>0.1145718134052479</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.270893717858498</v>
+        <v>0.2719234393217555</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -5938,19 +5938,19 @@
         <v>17830</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12094</v>
+        <v>12462</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24761</v>
+        <v>23936</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1621222740833317</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1099736459178348</v>
+        <v>0.1133119639646147</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.225144649962435</v>
+        <v>0.2176466358686112</v>
       </c>
     </row>
     <row r="10">
@@ -5967,19 +5967,19 @@
         <v>7944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4708</v>
+        <v>4596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12609</v>
+        <v>12307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1678699004725515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09947825340837678</v>
+        <v>0.09712362765110592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2664440132908236</v>
+        <v>0.260068867183047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5988,19 +5988,19 @@
         <v>15200</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10650</v>
+        <v>10713</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20549</v>
+        <v>20791</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2426007079848648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1699856251133361</v>
+        <v>0.1709843207466451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3279680585974385</v>
+        <v>0.3318347147394492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -6009,19 +6009,19 @@
         <v>23144</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17263</v>
+        <v>17251</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30206</v>
+        <v>30502</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2104444863787872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1569689251877755</v>
+        <v>0.1568630085523025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2746609753776382</v>
+        <v>0.2773473730785228</v>
       </c>
     </row>
     <row r="11">
@@ -6038,19 +6038,19 @@
         <v>29147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23691</v>
+        <v>24057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34212</v>
+        <v>34407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6159243873054362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5006326750952671</v>
+        <v>0.5083612489293886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7229704984288191</v>
+        <v>0.7270927721570047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -6059,19 +6059,19 @@
         <v>32562</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26559</v>
+        <v>26336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38293</v>
+        <v>38788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5197069134230029</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.423905686336595</v>
+        <v>0.4203363422015267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6111882120125141</v>
+        <v>0.6190817190890721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -6080,19 +6080,19 @@
         <v>61708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53811</v>
+        <v>53595</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69579</v>
+        <v>70123</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.561108719659751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4893016000771976</v>
+        <v>0.4873352603298014</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6326769585076996</v>
+        <v>0.6376220127895472</v>
       </c>
     </row>
     <row r="12">
@@ -6109,19 +6109,19 @@
         <v>3737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1366</v>
+        <v>1281</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7786</v>
+        <v>7719</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07896270917213036</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02886400399932691</v>
+        <v>0.02706825821860103</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1645226479903435</v>
+        <v>0.1631154126942217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -6130,19 +6130,19 @@
         <v>3557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1608</v>
+        <v>1323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7606</v>
+        <v>7336</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05677900329853371</v>
+        <v>0.05677900329853372</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02566880930267351</v>
+        <v>0.02112357671146353</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1214033810111087</v>
+        <v>0.1170904332323099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -6151,19 +6151,19 @@
         <v>7294</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3703</v>
+        <v>3469</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13169</v>
+        <v>12316</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06632451987813019</v>
+        <v>0.06632451987813021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03367095499130703</v>
+        <v>0.03154478746488545</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1197439545629495</v>
+        <v>0.1119865974518924</v>
       </c>
     </row>
     <row r="13">
@@ -6255,19 +6255,19 @@
         <v>4119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1751</v>
+        <v>1575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7619</v>
+        <v>7710</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2485657004600894</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1056687997813219</v>
+        <v>0.0950454223623942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4597351481452341</v>
+        <v>0.4652075007556771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -6276,19 +6276,19 @@
         <v>4581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2268</v>
+        <v>2427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7601</v>
+        <v>7479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.290964151548643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.144066849522079</v>
+        <v>0.1541429966871219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4827891114099767</v>
+        <v>0.4750403696190752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -6297,19 +6297,19 @@
         <v>8700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5181</v>
+        <v>5125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12746</v>
+        <v>13923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2692207479738935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1603288518633332</v>
+        <v>0.1585919342930858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3944135279075757</v>
+        <v>0.4308144285451698</v>
       </c>
     </row>
     <row r="15">
@@ -6339,19 +6339,19 @@
         <v>1762</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4631</v>
+        <v>5327</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1119046813222222</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02553470733253559</v>
+        <v>0.02561732122934478</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2941732916635325</v>
+        <v>0.3383683533758646</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -6360,19 +6360,19 @@
         <v>1762</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5007</v>
+        <v>5112</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05451606014804668</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01226268735426965</v>
+        <v>0.01253650106027805</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1549229746123981</v>
+        <v>0.1581930081255905</v>
       </c>
     </row>
     <row r="16">
@@ -6389,19 +6389,19 @@
         <v>10423</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6958</v>
+        <v>6928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13332</v>
+        <v>13555</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6288995374865821</v>
+        <v>0.6288995374865819</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4198552769042469</v>
+        <v>0.4180037640691903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8044154467485776</v>
+        <v>0.8179005845042381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -6410,19 +6410,19 @@
         <v>7568</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4631</v>
+        <v>4563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10684</v>
+        <v>10627</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4806739007134503</v>
+        <v>0.4806739007134502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2941223249647946</v>
+        <v>0.2898202809562477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.678608227573505</v>
+        <v>0.675008455177358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -6431,19 +6431,19 @@
         <v>17991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13205</v>
+        <v>12437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22513</v>
+        <v>22157</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5566891738598917</v>
+        <v>0.5566891738598916</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4086018071434723</v>
+        <v>0.384843069114562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6966328101817679</v>
+        <v>0.6856240497205635</v>
       </c>
     </row>
     <row r="17">
@@ -6460,19 +6460,19 @@
         <v>2031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5045</v>
+        <v>5181</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1225347620533286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03470013831488784</v>
+        <v>0.03587237383425819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3044303082216796</v>
+        <v>0.3126415072795424</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -6481,19 +6481,19 @@
         <v>1834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4770</v>
+        <v>4271</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1164572664156845</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03663558964165219</v>
+        <v>0.03452253517544466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3029638019550241</v>
+        <v>0.2713045205057053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -6502,19 +6502,19 @@
         <v>3864</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1607</v>
+        <v>1335</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7886</v>
+        <v>7356</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1195740180181682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0497110463894487</v>
+        <v>0.04130140675616507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2440353300338664</v>
+        <v>0.2276255840599848</v>
       </c>
     </row>
     <row r="18">
@@ -6606,19 +6606,19 @@
         <v>21563</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15338</v>
+        <v>15066</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29437</v>
+        <v>29562</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1286092618341311</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0914808480931501</v>
+        <v>0.08985551039422318</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1755721438969745</v>
+        <v>0.176313575843771</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -6627,19 +6627,19 @@
         <v>50758</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41226</v>
+        <v>42126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63244</v>
+        <v>62692</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1428957068877436</v>
+        <v>0.1428957068877437</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1160607248985337</v>
+        <v>0.1185936078030746</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1780464612420194</v>
+        <v>0.1764911072348745</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -6648,19 +6648,19 @@
         <v>72322</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61289</v>
+        <v>59498</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86668</v>
+        <v>86292</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1383146099985748</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1172148533755592</v>
+        <v>0.1137890406366781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1657526376122354</v>
+        <v>0.1650323379571822</v>
       </c>
     </row>
     <row r="20">
@@ -6677,19 +6677,19 @@
         <v>33082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25216</v>
+        <v>25827</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41691</v>
+        <v>41518</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1973091547882603</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1503947469689109</v>
+        <v>0.154039179072994</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2486555290269027</v>
+        <v>0.2476203224297476</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>175</v>
@@ -6698,19 +6698,19 @@
         <v>88200</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75564</v>
+        <v>76646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100070</v>
+        <v>100578</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2483037461048865</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2127291778803867</v>
+        <v>0.2157758525796472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2817212455886028</v>
+        <v>0.28315141626024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>226</v>
@@ -6719,19 +6719,19 @@
         <v>121282</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105690</v>
+        <v>107186</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137231</v>
+        <v>136253</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2319518011130876</v>
+        <v>0.2319518011130875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2021311497986172</v>
+        <v>0.2049928714673757</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2624535661179656</v>
+        <v>0.2605835668056879</v>
       </c>
     </row>
     <row r="21">
@@ -6748,19 +6748,19 @@
         <v>103936</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94683</v>
+        <v>93566</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>113431</v>
+        <v>113883</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6198974532221281</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5647141860243083</v>
+        <v>0.5580493726755147</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6765281685153733</v>
+        <v>0.6792232146060808</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>373</v>
@@ -6769,19 +6769,19 @@
         <v>199921</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>185349</v>
+        <v>185444</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>213117</v>
+        <v>212850</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5628234717388996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5217984234166082</v>
+        <v>0.5220669841807241</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5999725078023345</v>
+        <v>0.5992207632849594</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>530</v>
@@ -6790,19 +6790,19 @@
         <v>303857</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>287916</v>
+        <v>286590</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>321219</v>
+        <v>321597</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5811248362871908</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.550638862979119</v>
+        <v>0.5481029906796664</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6143307236627218</v>
+        <v>0.6150533318436604</v>
       </c>
     </row>
     <row r="22">
@@ -6819,19 +6819,19 @@
         <v>9085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5004</v>
+        <v>5147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15840</v>
+        <v>14699</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05418413015548056</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02984278689090332</v>
+        <v>0.03069821990783284</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0944719066575021</v>
+        <v>0.08767082095517295</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -6840,19 +6840,19 @@
         <v>16332</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10874</v>
+        <v>11477</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22400</v>
+        <v>23221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04597707526847034</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03061355269387741</v>
+        <v>0.0323102235992548</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06306233082974645</v>
+        <v>0.06537175689301934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -6861,19 +6861,19 @@
         <v>25416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18921</v>
+        <v>19548</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34495</v>
+        <v>34247</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04860875260114681</v>
+        <v>0.0486087526011468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03618647740940543</v>
+        <v>0.03738467542734013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06597090281045367</v>
+        <v>0.06549811482212907</v>
       </c>
     </row>
     <row r="23">
